--- a/05.Controls/M3.QA.Controls/Resources/Excels/COA1a.xlsx
+++ b/05.Controls/M3.QA.Controls/Resources/Excels/COA1a.xlsx
@@ -167,9 +167,6 @@
     <t>(dtex)</t>
   </si>
   <si>
-    <t>RPU</t>
-  </si>
-  <si>
     <t>Remark :</t>
   </si>
   <si>
@@ -188,7 +185,10 @@
     <t>SHRINKAGE</t>
   </si>
   <si>
-    <t>TWISTING NO</t>
+    <t>TWISTING NO.</t>
+  </si>
+  <si>
+    <t>RPU.</t>
   </si>
 </sst>
 </file>
@@ -722,6 +722,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,39 +808,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -876,7 +876,7 @@
         <xdr:cNvPr id="2" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6984C9-0C37-400A-AFFE-0753047B13B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C6984C9-0C37-400A-AFFE-0753047B13B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="13.2"/>
@@ -1397,10 +1397,10 @@
       <c r="B12" s="19"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="20"/>
       <c r="N12" s="70"/>
     </row>
@@ -1411,10 +1411,10 @@
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
       <c r="I13" s="20"/>
       <c r="K13" s="23"/>
       <c r="N13" s="70"/>
@@ -1426,14 +1426,14 @@
       <c r="B14" s="24"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="78" t="s">
+      <c r="F14" s="90"/>
+      <c r="G14" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="79"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="25" t="s">
         <v>15</v>
       </c>
@@ -1443,8 +1443,8 @@
       <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="13"/>
       <c r="E15" s="26"/>
       <c r="F15" s="27"/>
@@ -1482,22 +1482,22 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="N17" s="70"/>
-      <c r="Y17" s="81"/>
+      <c r="Y17" s="92"/>
     </row>
     <row r="18" spans="1:25" ht="19.8">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="88" t="s">
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="82" t="s">
+      <c r="E18" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="88" t="s">
+      <c r="F18" s="95"/>
+      <c r="G18" s="99" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="34" t="s">
@@ -1507,16 +1507,16 @@
       <c r="N18" s="70"/>
       <c r="Q18" s="13"/>
       <c r="T18" s="36"/>
-      <c r="Y18" s="81"/>
+      <c r="Y18" s="92"/>
     </row>
     <row r="19" spans="1:25" ht="21.6">
-      <c r="A19" s="85"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="89"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="100"/>
       <c r="H19" s="37" t="s">
         <v>25</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="M19" s="23"/>
       <c r="Q19" s="13"/>
       <c r="T19" s="36"/>
-      <c r="Y19" s="81"/>
+      <c r="Y19" s="92"/>
     </row>
     <row r="20" spans="1:25" ht="19.8">
       <c r="A20" s="39" t="s">
@@ -1537,11 +1537,11 @@
         <v>27</v>
       </c>
       <c r="D20" s="42"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="98"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="80"/>
       <c r="G20" s="43"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="92"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
       <c r="M20" s="45"/>
@@ -1557,11 +1557,11 @@
         <v>29</v>
       </c>
       <c r="D21" s="48"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
       <c r="G21" s="43"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="92"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="74"/>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
       <c r="M21" s="45"/>
@@ -1578,11 +1578,11 @@
         <v>29</v>
       </c>
       <c r="D22" s="51"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="98"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="80"/>
       <c r="G22" s="52"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="92"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="74"/>
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
       <c r="M22" s="45"/>
@@ -1591,18 +1591,18 @@
     </row>
     <row r="23" spans="1:25" ht="24.75" customHeight="1">
       <c r="A23" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="55"/>
       <c r="C23" s="56" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="53"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="98"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="52"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="92"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="74"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
       <c r="M23" s="45"/>
@@ -1610,18 +1610,18 @@
     </row>
     <row r="24" spans="1:25" ht="19.8">
       <c r="A24" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="40"/>
       <c r="C24" s="41" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="58"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="98"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="52"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="76"/>
       <c r="K24" s="44"/>
       <c r="L24" s="44"/>
       <c r="M24" s="45"/>
@@ -1629,18 +1629,18 @@
     </row>
     <row r="25" spans="1:25" ht="19.8">
       <c r="A25" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="60"/>
       <c r="C25" s="56" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="57"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="100"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
       <c r="G25" s="52"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="96"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="78"/>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="45"/>
@@ -1650,18 +1650,18 @@
     </row>
     <row r="26" spans="1:25" ht="19.8">
       <c r="A26" s="39" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B26" s="40"/>
       <c r="C26" s="41" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="61"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="94"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="52"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="96"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="78"/>
       <c r="K26" s="44"/>
       <c r="L26" s="44"/>
       <c r="M26" s="45"/>
@@ -1670,14 +1670,14 @@
     </row>
     <row r="27" spans="1:25" ht="25.5" customHeight="1">
       <c r="A27" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
+        <v>33</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="Y27" s="50"/>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="29" spans="1:25" ht="19.8">
       <c r="A29" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="31" spans="1:25" ht="17.399999999999999">
       <c r="A31" s="67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="67"/>
       <c r="C31" s="67"/>
@@ -1727,7 +1727,7 @@
       <c r="E31" s="67"/>
       <c r="H31" s="68"/>
       <c r="I31" s="68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="19.8">
@@ -1757,6 +1757,15 @@
     <protectedRange sqref="E10" name="Range1_3"/>
   </protectedRanges>
   <mergeCells count="24">
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
@@ -1772,15 +1781,6 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="A18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:G19"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:I16 E12 E14:H16">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">

--- a/05.Controls/M3.QA.Controls/Resources/Excels/COA1a.xlsx
+++ b/05.Controls/M3.QA.Controls/Resources/Excels/COA1a.xlsx
@@ -562,9 +562,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -722,6 +719,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -755,59 +806,8 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -876,7 +876,7 @@
         <xdr:cNvPr id="2" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C6984C9-0C37-400A-AFFE-0753047B13B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6984C9-0C37-400A-AFFE-0753047B13B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="13.2"/>
@@ -1226,7 +1226,7 @@
     <col min="10" max="13" width="7.5546875" style="2"/>
     <col min="14" max="14" width="10.44140625" style="2" customWidth="1"/>
     <col min="15" max="24" width="7.5546875" style="2"/>
-    <col min="25" max="25" width="7.5546875" style="47"/>
+    <col min="25" max="25" width="7.5546875" style="46"/>
     <col min="26" max="16384" width="7.5546875" style="2"/>
   </cols>
   <sheetData>
@@ -1240,7 +1240,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="N1" s="69"/>
+      <c r="N1" s="68"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -1254,7 +1254,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="N2" s="70"/>
+      <c r="N2" s="69"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -1268,7 +1268,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="N3" s="70"/>
+      <c r="N3" s="69"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -1282,7 +1282,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="N4" s="70"/>
+      <c r="N4" s="69"/>
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1">
@@ -1297,7 +1297,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="N5" s="70"/>
+      <c r="N5" s="69"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -1311,7 +1311,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="N6" s="70"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" spans="1:23" ht="20.399999999999999">
       <c r="A7" s="5"/>
@@ -1330,7 +1330,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="N7" s="70"/>
+      <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:23" ht="19.8">
       <c r="A8" s="1"/>
@@ -1342,7 +1342,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="N8" s="70"/>
+      <c r="N8" s="69"/>
     </row>
     <row r="9" spans="1:23" ht="26.4">
       <c r="A9" s="10" t="s">
@@ -1356,7 +1356,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="N9" s="71"/>
+      <c r="N9" s="70"/>
     </row>
     <row r="10" spans="1:23" ht="19.8">
       <c r="A10" s="1"/>
@@ -1370,104 +1370,104 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="N10" s="70"/>
+      <c r="N10" s="69"/>
     </row>
     <row r="11" spans="1:23" ht="22.5" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="70"/>
+      <c r="N11" s="69"/>
     </row>
     <row r="12" spans="1:23" ht="22.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="20"/>
-      <c r="N12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="19"/>
+      <c r="N12" s="69"/>
     </row>
     <row r="13" spans="1:23" ht="22.5" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="20"/>
-      <c r="K13" s="23"/>
-      <c r="N13" s="70"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="19"/>
+      <c r="K13" s="22"/>
+      <c r="N13" s="69"/>
     </row>
     <row r="14" spans="1:23" ht="22.5" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="89" t="s">
+      <c r="F14" s="78"/>
+      <c r="G14" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="25" t="s">
+      <c r="H14" s="78"/>
+      <c r="I14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="70"/>
+      <c r="N14" s="69"/>
     </row>
     <row r="15" spans="1:23" ht="22.5" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="20"/>
-      <c r="N15" s="70"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="19"/>
+      <c r="N15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="22.5" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="N16" s="70"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="N16" s="69"/>
     </row>
     <row r="17" spans="1:25" ht="19.8">
       <c r="A17" s="1" t="s">
@@ -1481,224 +1481,224 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="N17" s="70"/>
-      <c r="Y17" s="92"/>
+      <c r="N17" s="69"/>
+      <c r="Y17" s="80"/>
     </row>
     <row r="18" spans="1:25" ht="19.8">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="99" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="99" t="s">
+      <c r="F18" s="83"/>
+      <c r="G18" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="N18" s="70"/>
+      <c r="I18" s="34"/>
+      <c r="N18" s="69"/>
       <c r="Q18" s="13"/>
-      <c r="T18" s="36"/>
-      <c r="Y18" s="92"/>
+      <c r="T18" s="35"/>
+      <c r="Y18" s="80"/>
     </row>
     <row r="19" spans="1:25" ht="21.6">
-      <c r="A19" s="96"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="37" t="s">
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="38"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
+      <c r="I19" s="37"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
       <c r="Q19" s="13"/>
-      <c r="T19" s="36"/>
-      <c r="Y19" s="92"/>
+      <c r="T19" s="35"/>
+      <c r="Y19" s="80"/>
     </row>
     <row r="20" spans="1:25" ht="19.8">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="74"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="45"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
       <c r="Q20" s="13"/>
-      <c r="T20" s="46"/>
+      <c r="T20" s="45"/>
     </row>
     <row r="21" spans="1:25" ht="19.8">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="74"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="45"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
       <c r="Q21" s="1"/>
-      <c r="T21" s="49"/>
-      <c r="Y21" s="50"/>
+      <c r="T21" s="48"/>
+      <c r="Y21" s="49"/>
     </row>
     <row r="22" spans="1:25" ht="19.8">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="74"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
       <c r="Q22" s="1"/>
-      <c r="Y22" s="49"/>
+      <c r="Y22" s="48"/>
     </row>
     <row r="23" spans="1:25" ht="24.75" customHeight="1">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="74"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="91"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="44"/>
       <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:25" ht="19.8">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="76"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
       <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:25" ht="19.8">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="56" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="78"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="23"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="95"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="22"/>
       <c r="Q25" s="13"/>
-      <c r="T25" s="49"/>
+      <c r="T25" s="48"/>
     </row>
     <row r="26" spans="1:25" ht="19.8">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="23"/>
-      <c r="Y26" s="49"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="95"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="22"/>
+      <c r="Y26" s="48"/>
     </row>
     <row r="27" spans="1:25" ht="25.5" customHeight="1">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="Y27" s="50"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="Y27" s="49"/>
     </row>
     <row r="28" spans="1:25" ht="25.5" customHeight="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:25" ht="19.8">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1707,9 +1707,9 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="19.8">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1718,15 +1718,15 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="17.399999999999999">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68" t="s">
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1757,15 +1757,6 @@
     <protectedRange sqref="E10" name="Range1_3"/>
   </protectedRanges>
   <mergeCells count="24">
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="A18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:G19"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
@@ -1781,6 +1772,15 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:I16 E12 E14:H16">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
